--- a/electrical/parts/compiled_parts.xlsx
+++ b/electrical/parts/compiled_parts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11475" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11475" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="individual" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="425">
   <si>
     <t>Designator</t>
   </si>
@@ -1278,6 +1278,18 @@
   </si>
   <si>
     <t>Want</t>
+  </si>
+  <si>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>out of stock digikey and mouser</t>
+  </si>
+  <si>
+    <t>http://www.futureelectronics.com/en/technologies/interconnect/connectors-pcb/socket-plug-board-mount/Pages/8109985-LPPB102NFSP-RC.aspx</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1431,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1458,6 +1470,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="5" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
@@ -1765,16 +1779,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="B99" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -1782,15 +1797,24 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1853,8 +1877,12 @@
       <c r="J3" s="23" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>IF(J3 = "x",,H3-K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1885,8 +1913,12 @@
       <c r="J4" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="0">IF(J4 = "x",,H4-K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1917,8 +1949,12 @@
       <c r="J5" s="21" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1949,8 +1985,12 @@
       <c r="J6" s="21" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1981,8 +2021,12 @@
       <c r="J7" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2013,8 +2057,12 @@
       <c r="J8" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -2045,8 +2093,11 @@
       <c r="J9" s="22" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2074,8 +2125,15 @@
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -2103,8 +2161,15 @@
       <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -2135,8 +2200,12 @@
       <c r="J12" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2167,8 +2236,12 @@
       <c r="J13" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2199,8 +2272,12 @@
       <c r="J14" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2231,8 +2308,12 @@
       <c r="J15" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -2263,8 +2344,12 @@
       <c r="J16" s="22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -2292,8 +2377,15 @@
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -2321,8 +2413,15 @@
       <c r="I18" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -2350,8 +2449,15 @@
       <c r="I19" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2379,13 +2485,30 @@
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="I23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -2442,8 +2568,11 @@
       <c r="I24" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>92</v>
       </c>
@@ -2474,8 +2603,12 @@
       <c r="J25" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
@@ -2506,8 +2639,12 @@
       <c r="J26" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>102</v>
       </c>
@@ -2535,8 +2672,15 @@
       <c r="I27" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
@@ -2564,8 +2708,15 @@
       <c r="I28" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>110</v>
       </c>
@@ -2593,8 +2744,15 @@
       <c r="I29" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>111</v>
       </c>
@@ -2622,8 +2780,15 @@
       <c r="I30" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>113</v>
       </c>
@@ -2651,8 +2816,15 @@
       <c r="I31" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>117</v>
       </c>
@@ -2680,8 +2852,15 @@
       <c r="I32" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -2712,8 +2891,12 @@
       <c r="J33" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -2744,8 +2927,12 @@
       <c r="J34" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
@@ -2776,8 +2963,12 @@
       <c r="J35" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>128</v>
       </c>
@@ -2808,8 +2999,12 @@
       <c r="J36" s="24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>130</v>
       </c>
@@ -2837,8 +3032,15 @@
       <c r="I37" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>133</v>
       </c>
@@ -2866,8 +3068,15 @@
       <c r="I38" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>136</v>
       </c>
@@ -2895,8 +3104,15 @@
       <c r="I39" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>141</v>
       </c>
@@ -2924,8 +3140,15 @@
       <c r="I40" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>146</v>
       </c>
@@ -2953,8 +3176,15 @@
       <c r="I41" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>149</v>
       </c>
@@ -2982,13 +3212,30 @@
       <c r="I42" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3016,8 +3263,11 @@
       <c r="I45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3048,8 +3298,12 @@
       <c r="J46" s="25" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -3080,8 +3334,12 @@
       <c r="J47" s="25" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -3112,8 +3370,12 @@
       <c r="J48" s="25" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>39</v>
       </c>
@@ -3141,8 +3403,14 @@
       <c r="I49" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>166</v>
       </c>
@@ -3170,8 +3438,15 @@
       <c r="I50" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>168</v>
       </c>
@@ -3199,13 +3474,33 @@
       <c r="I51" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M51" s="33">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,8 +3528,11 @@
       <c r="I54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>172</v>
       </c>
@@ -3262,8 +3560,14 @@
       <c r="I55" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>174</v>
       </c>
@@ -3294,8 +3598,12 @@
       <c r="J56" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>372</v>
       </c>
@@ -3326,8 +3634,12 @@
       <c r="J57" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>179</v>
       </c>
@@ -3358,8 +3670,12 @@
       <c r="J58" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>183</v>
       </c>
@@ -3390,8 +3706,12 @@
       <c r="J59" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>187</v>
       </c>
@@ -3422,8 +3742,12 @@
       <c r="J60" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>191</v>
       </c>
@@ -3454,8 +3778,12 @@
       <c r="J61" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>195</v>
       </c>
@@ -3486,8 +3814,12 @@
       <c r="J62" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>198</v>
       </c>
@@ -3518,8 +3850,12 @@
       <c r="J63" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>204</v>
       </c>
@@ -3550,8 +3886,12 @@
       <c r="J64" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>39</v>
       </c>
@@ -3579,8 +3919,15 @@
       <c r="I65" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>43</v>
       </c>
@@ -3608,8 +3955,15 @@
       <c r="I66" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>47</v>
       </c>
@@ -3637,8 +3991,15 @@
       <c r="I67" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>215</v>
       </c>
@@ -3666,8 +4027,15 @@
       <c r="I68" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L84" si="1">IF(J68 = "x",,H68-K68)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>221</v>
       </c>
@@ -3695,8 +4063,15 @@
       <c r="I69" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>223</v>
       </c>
@@ -3724,8 +4099,15 @@
       <c r="I70" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>226</v>
       </c>
@@ -3756,8 +4138,12 @@
       <c r="J71" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>230</v>
       </c>
@@ -3788,8 +4174,12 @@
       <c r="J72" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>234</v>
       </c>
@@ -3820,8 +4210,12 @@
       <c r="J73" s="26" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>237</v>
       </c>
@@ -3852,8 +4246,12 @@
       <c r="J74" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>239</v>
       </c>
@@ -3884,8 +4282,12 @@
       <c r="J75" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>242</v>
       </c>
@@ -3916,8 +4318,12 @@
       <c r="J76" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>245</v>
       </c>
@@ -3948,8 +4354,12 @@
       <c r="J77" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>248</v>
       </c>
@@ -3980,8 +4390,12 @@
       <c r="J78" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>249</v>
       </c>
@@ -4009,8 +4423,15 @@
       <c r="I79" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>71</v>
       </c>
@@ -4038,8 +4459,15 @@
       <c r="I80" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>168</v>
       </c>
@@ -4067,8 +4495,15 @@
       <c r="I81" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>133</v>
       </c>
@@ -4096,8 +4531,15 @@
       <c r="I82" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>136</v>
       </c>
@@ -4125,8 +4567,15 @@
       <c r="I83" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>268</v>
       </c>
@@ -4154,13 +4603,20 @@
       <c r="I84" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4646,7 @@
       </c>
       <c r="J88" s="27"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>271</v>
       </c>
@@ -4221,8 +4677,12 @@
       <c r="J89" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f>IF(J89 = "x",,I89-K89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>275</v>
       </c>
@@ -4253,8 +4713,12 @@
       <c r="J90" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" ref="L90:L124" si="2">IF(J90 = "x",,I90-K90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>278</v>
       </c>
@@ -4285,8 +4749,12 @@
       <c r="J91" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>381</v>
       </c>
@@ -4317,8 +4785,12 @@
       <c r="J92" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>155</v>
       </c>
@@ -4349,8 +4821,12 @@
       <c r="J93" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>159</v>
       </c>
@@ -4381,8 +4857,12 @@
       <c r="J94" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>401</v>
       </c>
@@ -4413,8 +4893,12 @@
       <c r="J95" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>281</v>
       </c>
@@ -4445,8 +4929,12 @@
       <c r="J96" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>285</v>
       </c>
@@ -4477,8 +4965,12 @@
       <c r="J97" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>291</v>
       </c>
@@ -4509,8 +5001,12 @@
       <c r="J98" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>296</v>
       </c>
@@ -4541,8 +5037,12 @@
       <c r="J99" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>204</v>
       </c>
@@ -4573,8 +5073,12 @@
       <c r="J100" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>303</v>
       </c>
@@ -4603,8 +5107,15 @@
         <v>2</v>
       </c>
       <c r="J101" s="27"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>47</v>
       </c>
@@ -4633,8 +5144,18 @@
         <v>1</v>
       </c>
       <c r="J102" s="27"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M102" s="33">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>110</v>
       </c>
@@ -4663,8 +5184,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="27"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>310</v>
       </c>
@@ -4695,8 +5223,12 @@
       <c r="J104" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>312</v>
       </c>
@@ -4727,8 +5259,12 @@
       <c r="J105" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>313</v>
       </c>
@@ -4759,8 +5295,12 @@
       <c r="J106" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>314</v>
       </c>
@@ -4791,8 +5331,12 @@
       <c r="J107" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>315</v>
       </c>
@@ -4823,8 +5367,12 @@
       <c r="J108" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>318</v>
       </c>
@@ -4855,8 +5403,12 @@
       <c r="J109" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>319</v>
       </c>
@@ -4887,8 +5439,12 @@
       <c r="J110" s="32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>322</v>
       </c>
@@ -4916,9 +5472,14 @@
       <c r="I111" s="15">
         <v>10</v>
       </c>
-      <c r="J111" s="27"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>323</v>
       </c>
@@ -4946,9 +5507,14 @@
       <c r="I112" s="15">
         <v>1</v>
       </c>
-      <c r="J112" s="27"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>325</v>
       </c>
@@ -4976,9 +5542,14 @@
       <c r="I113" s="15">
         <v>1</v>
       </c>
-      <c r="J113" s="27"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>327</v>
       </c>
@@ -5006,9 +5577,14 @@
       <c r="I114" s="15">
         <v>10</v>
       </c>
-      <c r="J114" s="27"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>328</v>
       </c>
@@ -5037,8 +5613,18 @@
         <v>2</v>
       </c>
       <c r="J115" s="27"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>168</v>
       </c>
@@ -5067,8 +5653,15 @@
         <v>1</v>
       </c>
       <c r="J116" s="27"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>133</v>
       </c>
@@ -5097,8 +5690,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="27"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>136</v>
       </c>
@@ -5127,8 +5727,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="27"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>141</v>
       </c>
@@ -5157,8 +5764,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="27"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>146</v>
       </c>
@@ -5187,8 +5801,15 @@
         <v>1</v>
       </c>
       <c r="J120" s="27"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>352</v>
       </c>
@@ -5217,8 +5838,18 @@
         <v>2</v>
       </c>
       <c r="J121" s="27"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>84</v>
       </c>
@@ -5247,8 +5878,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="27"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>363</v>
       </c>
@@ -5277,8 +5915,15 @@
         <v>1</v>
       </c>
       <c r="J123" s="27"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>367</v>
       </c>
@@ -5307,6 +5952,13 @@
         <v>1</v>
       </c>
       <c r="J124" s="27"/>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5318,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,14 +6050,14 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H2" s="17">
-        <f>E2*G2</f>
+        <f t="shared" ref="H2:H41" si="0">E2*G2</f>
         <v>1.716</v>
       </c>
       <c r="J2">
         <v>250</v>
       </c>
       <c r="K2">
-        <f>E2-J2</f>
+        <f t="shared" ref="K2:K41" si="1">E2-J2</f>
         <v>-184</v>
       </c>
       <c r="M2">
@@ -5421,7 +6073,7 @@
       </c>
       <c r="Q2" s="18">
         <f>SUM(N2:N41)</f>
-        <v>106.8956</v>
+        <v>105.97560000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5442,26 +6094,26 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F41" si="0">CEILING(E3*(1.1),1)</f>
+        <f t="shared" ref="F3:F41" si="2">CEILING(E3*(1.1),1)</f>
         <v>7</v>
       </c>
       <c r="G3" s="17">
         <v>4.07</v>
       </c>
       <c r="H3" s="17">
-        <f>E3*G3</f>
+        <f t="shared" si="0"/>
         <v>24.42</v>
       </c>
       <c r="K3">
-        <f>E3-J3</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M48" si="1">IF(F3-J3 &gt; 0,F3-J3,0)</f>
+        <f t="shared" ref="M3:M41" si="3">IF(F3-J3 &gt; 0,F3-J3,0)</f>
         <v>7</v>
       </c>
       <c r="N3" s="18">
-        <f t="shared" ref="N3:N41" si="2">M3*G3</f>
+        <f t="shared" ref="N3:N41" si="4">M3*G3</f>
         <v>28.490000000000002</v>
       </c>
     </row>
@@ -5483,14 +6135,14 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G4" s="17">
         <v>0.56000000000000005</v>
       </c>
       <c r="H4" s="17">
-        <f>E4*G4</f>
+        <f t="shared" si="0"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="I4" t="s">
@@ -5500,15 +6152,15 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <f>E4-J4</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5529,29 +6181,29 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G5" s="17">
         <v>1.07</v>
       </c>
       <c r="H5" s="17">
-        <f>E5*G5</f>
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
       <c r="I5" t="s">
         <v>387</v>
       </c>
       <c r="K5">
-        <f>E5-J5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.14</v>
       </c>
     </row>
@@ -5572,29 +6224,29 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G6" s="17">
         <v>0.31</v>
       </c>
       <c r="H6" s="17">
-        <f>E6*G6</f>
+        <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
       <c r="I6" t="s">
         <v>387</v>
       </c>
       <c r="K6">
-        <f>E6-J6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62</v>
       </c>
     </row>
@@ -5616,26 +6268,26 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G7" s="17">
         <v>0.64</v>
       </c>
       <c r="H7" s="17">
-        <f>E7*G7</f>
+        <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
       <c r="K7">
-        <f>E7-J7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
     </row>
@@ -5657,29 +6309,29 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G8" s="17">
         <v>1.21</v>
       </c>
       <c r="H8" s="17">
-        <f>E8*G8</f>
+        <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
       <c r="I8" t="s">
         <v>387</v>
       </c>
       <c r="K8">
-        <f>E8-J8</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.26</v>
       </c>
     </row>
@@ -5698,29 +6350,29 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G9" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H9" s="17">
-        <f>E9*G9</f>
+        <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="J9">
         <v>70</v>
       </c>
       <c r="K9">
-        <f>E9-J9</f>
+        <f t="shared" si="1"/>
         <v>-58</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5739,29 +6391,29 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G10" s="17">
         <v>0.22</v>
       </c>
       <c r="H10" s="17">
-        <f>E10*G10</f>
+        <f t="shared" si="0"/>
         <v>6.82</v>
       </c>
       <c r="J10">
         <v>48</v>
       </c>
       <c r="K10">
-        <f>E10-J10</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5780,29 +6432,29 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G11" s="17">
         <v>0.1176</v>
       </c>
       <c r="H11" s="17">
-        <f>E11*G11</f>
+        <f t="shared" si="0"/>
         <v>0.3528</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <f>E11-J11</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5821,29 +6473,29 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G12" s="17">
         <v>0.11</v>
       </c>
       <c r="H12" s="17">
-        <f>E12*G12</f>
+        <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12">
-        <f>E12-J12</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
     </row>
@@ -5862,29 +6514,29 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G13" s="17">
         <v>0.33</v>
       </c>
       <c r="H13" s="17">
-        <f>E13*G13</f>
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
       <c r="J13">
         <v>7</v>
       </c>
       <c r="K13">
-        <f>E13-J13</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,29 +6558,29 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G14" s="17">
         <v>0.27600000000000002</v>
       </c>
       <c r="H14" s="17">
-        <f>E14*G14</f>
+        <f t="shared" si="0"/>
         <v>0.82800000000000007</v>
       </c>
       <c r="J14">
         <v>7</v>
       </c>
       <c r="K14">
-        <f>E14-J14</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5947,29 +6599,29 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G15" s="17">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="H15" s="17">
-        <f>E15*G15</f>
+        <f t="shared" si="0"/>
         <v>0.17699999999999999</v>
       </c>
       <c r="J15">
         <v>7</v>
       </c>
       <c r="K15">
-        <f>E15-J15</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5988,29 +6640,29 @@
         <v>16</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G16" s="17">
         <v>0.22</v>
       </c>
       <c r="H16" s="17">
-        <f>E16*G16</f>
+        <f t="shared" si="0"/>
         <v>3.52</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16">
-        <f>E16-J16</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.08</v>
       </c>
     </row>
@@ -6029,14 +6681,14 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G17" s="17">
         <v>0.06</v>
       </c>
       <c r="H17" s="17">
-        <f>E17*G17</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="I17" t="s">
@@ -6046,15 +6698,15 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <f>E17-J17</f>
+        <f t="shared" si="1"/>
         <v>-26</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6073,29 +6725,29 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G18" s="17">
         <v>0.16</v>
       </c>
       <c r="H18" s="17">
-        <f>E18*G18</f>
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18">
-        <f>E18-J18</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6114,14 +6766,14 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G19" s="17">
         <v>0.1108</v>
       </c>
       <c r="H19" s="17">
-        <f>E19*G19</f>
+        <f t="shared" si="0"/>
         <v>0.88639999999999997</v>
       </c>
       <c r="I19" t="s">
@@ -6131,37 +6783,37 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <f>E19-J19</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N19" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77559999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="17">
-        <f>E20*G20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>E20-J20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6183,26 +6835,26 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G21" s="17">
         <v>0.54</v>
       </c>
       <c r="H21" s="17">
-        <f>E21*G21</f>
+        <f t="shared" si="0"/>
         <v>6.48</v>
       </c>
       <c r="K21">
-        <f>E21-J21</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5600000000000005</v>
       </c>
     </row>
@@ -6224,26 +6876,26 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G22" s="17">
         <v>0.33</v>
       </c>
       <c r="H22" s="17">
-        <f>E22*G22</f>
+        <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="K22">
-        <f>E22-J22</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6300000000000003</v>
       </c>
     </row>
@@ -6262,27 +6914,30 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G23" s="17">
         <v>0.46</v>
       </c>
       <c r="H23" s="17">
-        <f>E23*G23</f>
+        <f t="shared" si="0"/>
         <v>1.3800000000000001</v>
       </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
       <c r="K23">
-        <f>E23-J23</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="2"/>
-        <v>1.84</v>
+        <f t="shared" si="4"/>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -6303,48 +6958,48 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G24" s="17">
         <v>3.08</v>
       </c>
       <c r="H24" s="17">
-        <f>E24*G24</f>
+        <f t="shared" si="0"/>
         <v>9.24</v>
       </c>
       <c r="K24">
-        <f>E24-J24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.32</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="17">
-        <f>E25*G25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>E25-J25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6363,48 +7018,48 @@
         <v>24</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G26" s="17">
         <v>1.23</v>
       </c>
       <c r="H26" s="17">
-        <f>E26*G26</f>
+        <f t="shared" si="0"/>
         <v>29.52</v>
       </c>
       <c r="K26">
-        <f>E26-J26</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.21</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <f>E27*G27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>E27-J27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6423,26 +7078,26 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G28" s="17">
         <v>0.02</v>
       </c>
       <c r="H28" s="17">
-        <f>E28*G28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="K28">
-        <f>E28-J28</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -6461,26 +7116,26 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G29" s="17">
         <v>0.04</v>
       </c>
       <c r="H29" s="17">
-        <f>E29*G29</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="K29">
-        <f>E29-J29</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6499,29 +7154,29 @@
         <v>16</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G30" s="17">
         <v>0.02</v>
       </c>
       <c r="H30" s="17">
-        <f>E30*G30</f>
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
       <c r="K30">
-        <f>E30-J30</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
     </row>
@@ -6540,29 +7195,29 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G31" s="17">
         <v>0.02</v>
       </c>
       <c r="H31" s="17">
-        <f>E31*G31</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J31">
         <v>68</v>
       </c>
       <c r="K31">
-        <f>E31-J31</f>
+        <f t="shared" si="1"/>
         <v>-63</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6581,29 +7236,29 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G32" s="17">
         <v>0.04</v>
       </c>
       <c r="H32" s="17">
-        <f>E32*G32</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="J32">
         <v>9</v>
       </c>
       <c r="K32">
-        <f>E32-J32</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6622,29 +7277,29 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G33" s="17">
         <v>0.04</v>
       </c>
       <c r="H33" s="17">
-        <f>E33*G33</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33">
-        <f>E33-J33</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N33" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
     </row>
@@ -6663,26 +7318,26 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G34" s="17">
         <v>0.04</v>
       </c>
       <c r="H34" s="17">
-        <f>E34*G34</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="K34">
-        <f>E34-J34</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
     </row>
@@ -6701,26 +7356,26 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G35" s="17">
         <v>0.04</v>
       </c>
       <c r="H35" s="17">
-        <f>E35*G35</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="K35">
-        <f>E35-J35</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -6739,29 +7394,29 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G36" s="17">
         <v>0.04</v>
       </c>
       <c r="H36" s="17">
-        <f>E36*G36</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J36">
         <v>80</v>
       </c>
       <c r="K36">
-        <f>E36-J36</f>
+        <f t="shared" si="1"/>
         <v>-73</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6780,29 +7435,29 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G37" s="17">
         <v>0.04</v>
       </c>
       <c r="H37" s="17">
-        <f>E37*G37</f>
+        <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37">
-        <f>E37-J37</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -6823,29 +7478,29 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G38" s="17">
         <v>0.03</v>
       </c>
       <c r="H38" s="17">
-        <f>E38*G38</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <f>E38-J38</f>
+        <f t="shared" si="1"/>
         <v>-95</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6864,29 +7519,29 @@
         <v>32</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G39" s="17">
         <v>0.04</v>
       </c>
       <c r="H39" s="17">
-        <f>E39*G39</f>
+        <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
       <c r="J39">
         <v>39</v>
       </c>
       <c r="K39">
-        <f>E39-J39</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N39" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6905,29 +7560,29 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G40" s="17">
         <v>0.04</v>
       </c>
       <c r="H40" s="17">
-        <f>E40*G40</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="J40">
         <v>8</v>
       </c>
       <c r="K40">
-        <f>E40-J40</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N40" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6946,23 +7601,23 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H41" s="17">
-        <f>E41*G41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>E41-J41</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N41" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>

--- a/electrical/parts/compiled_parts.xlsx
+++ b/electrical/parts/compiled_parts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="433">
   <si>
     <t>Designator</t>
   </si>
@@ -1290,6 +1290,30 @@
   </si>
   <si>
     <t>http://www.futureelectronics.com/en/technologies/interconnect/connectors-pcb/socket-plug-board-mount/Pages/8109985-LPPB102NFSP-RC.aspx</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TXB0108PWR/?qs=sGAEpiMZZMsty6Jaj0%252bBBhonw%2flHfIB47h2ZBZc1b4s%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/MAX3221CPW/?qs=sGAEpiMZZMutXGli8Ay4kGzBZxTNUF2pfDMlx7%252bOkrY%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/UA78M05CDCYR/?qs=sGAEpiMZZMtUqDgmOWBjgDRL0v%252b7sWT8CqGKJibCrHc%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/UA78M33CDCY/?qs=sGAEpiMZZMtUqDgmOWBjgHbKmseNGGTSkgouR6SXN0g%3d</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/54819-0572/?qs=sGAEpiMZZMulM8LPOQ%252bykzAp4yt8IxVboHG1FDrEqZY%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/35363-0460/?qs=%2fThcE39Bh8otk12cQaMDIg%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/35363-0360/?qs=e7FQyhQEwjenRHimJE4bFQ%3d%3d</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1324,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,6 +1348,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1422,7 +1454,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1430,8 +1462,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,14 +1505,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
     <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1779,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -2421,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2493,13 +2528,13 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -2508,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>92</v>
       </c>
@@ -2608,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
@@ -2644,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>102</v>
       </c>
@@ -2679,8 +2714,11 @@
       <c r="M27" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="36" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
@@ -2715,8 +2753,11 @@
       <c r="M28" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>110</v>
       </c>
@@ -2752,7 +2793,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>111</v>
       </c>
@@ -2788,7 +2829,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>113</v>
       </c>
@@ -2823,8 +2864,11 @@
       <c r="M31" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>117</v>
       </c>
@@ -2859,8 +2903,11 @@
       <c r="M32" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -2896,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -2932,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
@@ -2968,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>128</v>
       </c>
@@ -3004,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>130</v>
       </c>
@@ -3039,8 +3086,14 @@
       <c r="M37" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>427</v>
+      </c>
+      <c r="O37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>133</v>
       </c>
@@ -3076,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>136</v>
       </c>
@@ -3112,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>141</v>
       </c>
@@ -3147,8 +3200,11 @@
       <c r="M40" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>146</v>
       </c>
@@ -3183,8 +3239,11 @@
       <c r="M41" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>149</v>
       </c>
@@ -3220,13 +3279,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>398</v>
       </c>
@@ -3235,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3303,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -3339,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -5961,8 +6020,15 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N40" r:id="rId1"/>
+    <hyperlink ref="N41" r:id="rId2"/>
+    <hyperlink ref="N27" r:id="rId3"/>
+    <hyperlink ref="N28" r:id="rId4"/>
+    <hyperlink ref="N32" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/electrical/parts/compiled_parts.xlsx
+++ b/electrical/parts/compiled_parts.xlsx
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,8 +2711,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M27" s="33">
-        <v>0</v>
+      <c r="M27">
+        <v>1</v>
       </c>
       <c r="N27" s="36" t="s">
         <v>430</v>
@@ -2750,8 +2750,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M28" s="33">
-        <v>0</v>
+      <c r="M28">
+        <v>3</v>
       </c>
       <c r="N28" s="36" t="s">
         <v>431</v>
@@ -2900,8 +2900,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M32" s="33">
-        <v>0</v>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="N32" s="36" t="s">
         <v>432</v>
@@ -3083,10 +3083,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M37" s="33">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37" s="36" t="s">
         <v>427</v>
       </c>
       <c r="O37" t="s">
@@ -3197,8 +3197,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M40" s="33">
-        <v>0</v>
+      <c r="M40">
+        <v>1</v>
       </c>
       <c r="N40" s="36" t="s">
         <v>425</v>
@@ -3236,8 +3236,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M41" s="33">
-        <v>0</v>
+      <c r="M41">
+        <v>1</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>426</v>
@@ -6026,9 +6026,10 @@
     <hyperlink ref="N27" r:id="rId3"/>
     <hyperlink ref="N28" r:id="rId4"/>
     <hyperlink ref="N32" r:id="rId5"/>
+    <hyperlink ref="N37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/electrical/parts/compiled_parts.xlsx
+++ b/electrical/parts/compiled_parts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="435">
   <si>
     <t>Designator</t>
   </si>
@@ -1286,9 +1286,6 @@
     <t>Ordered</t>
   </si>
   <si>
-    <t>out of stock digikey and mouser</t>
-  </si>
-  <si>
     <t>http://www.futureelectronics.com/en/technologies/interconnect/connectors-pcb/socket-plug-board-mount/Pages/8109985-LPPB102NFSP-RC.aspx</t>
   </si>
   <si>
@@ -1314,6 +1311,15 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Molex/35363-0360/?qs=e7FQyhQEwjenRHimJE4bFQ%3d%3d</t>
+  </si>
+  <si>
+    <t>joey says aaron will give us XMEGAs</t>
+  </si>
+  <si>
+    <t>digi</t>
+  </si>
+  <si>
+    <t>need samples from ti??</t>
   </si>
 </sst>
 </file>
@@ -1814,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="E102" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1838,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -1848,8 +1854,14 @@
       <c r="M1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2167,8 +2179,11 @@
       <c r="M10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -2203,8 +2218,11 @@
       <c r="M11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
@@ -2452,11 +2470,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -2485,14 +2506,14 @@
         <v>83</v>
       </c>
       <c r="K19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2521,20 +2542,20 @@
         <v>12</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>92</v>
       </c>
@@ -2643,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>102</v>
       </c>
@@ -2715,10 +2736,13 @@
         <v>1</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="P27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
@@ -2754,10 +2778,13 @@
         <v>3</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="P28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>110</v>
       </c>
@@ -2793,7 +2820,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>111</v>
       </c>
@@ -2829,7 +2856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>113</v>
       </c>
@@ -2865,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>117</v>
       </c>
@@ -2901,13 +2928,16 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="P32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -2943,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>124</v>
       </c>
@@ -2979,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>128</v>
       </c>
@@ -3051,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>130</v>
       </c>
@@ -3087,13 +3117,16 @@
         <v>4</v>
       </c>
       <c r="N37" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="O37" t="s">
         <v>427</v>
       </c>
-      <c r="O37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>133</v>
       </c>
@@ -3126,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>136</v>
       </c>
@@ -3164,8 +3197,11 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>141</v>
       </c>
@@ -3198,13 +3234,16 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="36" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="P40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>146</v>
       </c>
@@ -3232,18 +3271,21 @@
       <c r="I41" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="36" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>149</v>
       </c>
@@ -3278,14 +3320,17 @@
       <c r="M42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>398</v>
       </c>
@@ -3294,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
@@ -3362,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -3398,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>159</v>
       </c>
@@ -3434,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>39</v>
       </c>
@@ -3469,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>166</v>
       </c>
@@ -3505,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>168</v>
       </c>
@@ -3533,24 +3578,21 @@
       <c r="I51" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M51" s="33">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>171</v>
       </c>
@@ -3559,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>172</v>
       </c>
@@ -3626,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>174</v>
       </c>
@@ -3662,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>372</v>
       </c>
@@ -3698,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>179</v>
       </c>
@@ -3734,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>183</v>
       </c>
@@ -3770,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>187</v>
       </c>
@@ -3806,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>191</v>
       </c>
@@ -3842,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>195</v>
       </c>
@@ -3878,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>198</v>
       </c>
@@ -3914,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>204</v>
       </c>
@@ -3950,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>39</v>
       </c>
@@ -3986,7 +4028,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>43</v>
       </c>
@@ -4019,10 +4061,13 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>47</v>
       </c>
@@ -4057,8 +4102,11 @@
       <c r="M67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>215</v>
       </c>
@@ -4094,7 +4142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>221</v>
       </c>
@@ -4130,7 +4178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>223</v>
       </c>
@@ -4166,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>226</v>
       </c>
@@ -4202,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>230</v>
       </c>
@@ -4238,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>234</v>
       </c>
@@ -4274,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>237</v>
       </c>
@@ -4310,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>239</v>
       </c>
@@ -4346,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>242</v>
       </c>
@@ -4382,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>245</v>
       </c>
@@ -4418,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>248</v>
       </c>
@@ -4454,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>249</v>
       </c>
@@ -4490,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>71</v>
       </c>
@@ -4591,11 +4639,11 @@
         <v>83</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L82">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4631,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4993,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>285</v>
       </c>
@@ -5029,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>291</v>
       </c>
@@ -5065,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>296</v>
       </c>
@@ -5101,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>204</v>
       </c>
@@ -5137,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>303</v>
       </c>
@@ -5173,8 +5221,11 @@
       <c r="M101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q101" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>47</v>
       </c>
@@ -5211,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>110</v>
       </c>
@@ -5251,7 +5302,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>310</v>
       </c>
@@ -5287,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>312</v>
       </c>
@@ -5323,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>313</v>
       </c>
@@ -5359,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>314</v>
       </c>
@@ -5395,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>315</v>
       </c>
@@ -5431,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>318</v>
       </c>
@@ -5467,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>319</v>
       </c>
@@ -5503,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>322</v>
       </c>
@@ -5538,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>323</v>
       </c>
@@ -5573,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>325</v>
       </c>
@@ -5608,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>327</v>
       </c>
@@ -5643,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>328</v>
       </c>
@@ -5679,11 +5730,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="33">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>168</v>
       </c>
@@ -5720,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>133</v>
       </c>
@@ -5756,8 +5810,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>136</v>
       </c>
@@ -5793,8 +5853,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>141</v>
       </c>
@@ -5830,8 +5896,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>146</v>
       </c>
@@ -5861,14 +5933,14 @@
       </c>
       <c r="J120" s="27"/>
       <c r="K120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L120">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>352</v>
       </c>
@@ -5898,17 +5970,14 @@
       </c>
       <c r="J121" s="27"/>
       <c r="K121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>84</v>
       </c>
@@ -5938,14 +6007,14 @@
       </c>
       <c r="J122" s="27"/>
       <c r="K122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L122">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>363</v>
       </c>
@@ -5979,10 +6048,13 @@
         <v>1</v>
       </c>
       <c r="M123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>367</v>
       </c>
@@ -6037,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,6 +6192,9 @@
         <f t="shared" ref="H2:H41" si="0">E2*G2</f>
         <v>1.716</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>250</v>
       </c>
@@ -6171,6 +6246,9 @@
         <f t="shared" si="0"/>
         <v>24.42</v>
       </c>
+      <c r="I3" t="s">
+        <v>433</v>
+      </c>
       <c r="K3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6212,8 +6290,8 @@
         <f t="shared" si="0"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="I4" t="s">
-        <v>387</v>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -6345,6 +6423,9 @@
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
+      <c r="I7" t="s">
+        <v>433</v>
+      </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6427,6 +6508,9 @@
         <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>70</v>
       </c>
@@ -6468,6 +6552,9 @@
         <f t="shared" si="0"/>
         <v>6.82</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>48</v>
       </c>
@@ -6509,6 +6596,9 @@
         <f t="shared" si="0"/>
         <v>0.3528</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>6</v>
       </c>
@@ -6550,6 +6640,9 @@
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
+      <c r="I12" t="s">
+        <v>433</v>
+      </c>
       <c r="J12">
         <v>4</v>
       </c>
@@ -6591,6 +6684,9 @@
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>7</v>
       </c>
@@ -6635,6 +6731,9 @@
         <f t="shared" si="0"/>
         <v>0.82800000000000007</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>7</v>
       </c>
@@ -6676,6 +6775,9 @@
         <f t="shared" si="0"/>
         <v>0.17699999999999999</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15">
         <v>7</v>
       </c>
@@ -6717,6 +6819,9 @@
         <f t="shared" si="0"/>
         <v>3.52</v>
       </c>
+      <c r="I16" t="s">
+        <v>433</v>
+      </c>
       <c r="J16">
         <v>4</v>
       </c>
@@ -6758,8 +6863,8 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="I17" t="s">
-        <v>387</v>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>30</v>
@@ -6802,6 +6907,9 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>11</v>
       </c>
@@ -6871,6 +6979,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6912,6 +7023,9 @@
         <f t="shared" si="0"/>
         <v>6.48</v>
       </c>
+      <c r="I21" t="s">
+        <v>433</v>
+      </c>
       <c r="K21">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6991,6 +7105,9 @@
         <f t="shared" si="0"/>
         <v>1.3800000000000001</v>
       </c>
+      <c r="I23" t="s">
+        <v>433</v>
+      </c>
       <c r="J23">
         <v>2</v>
       </c>
@@ -7035,6 +7152,9 @@
         <f t="shared" si="0"/>
         <v>9.24</v>
       </c>
+      <c r="I24" t="s">
+        <v>433</v>
+      </c>
       <c r="K24">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7095,6 +7215,9 @@
         <f t="shared" si="0"/>
         <v>29.52</v>
       </c>
+      <c r="I26" t="s">
+        <v>433</v>
+      </c>
       <c r="K26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7117,6 +7240,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="K27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7155,6 +7281,9 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
+      <c r="I28" t="s">
+        <v>433</v>
+      </c>
       <c r="K28">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7193,6 +7322,9 @@
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
+      <c r="I29" t="s">
+        <v>433</v>
+      </c>
       <c r="K29">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7231,6 +7363,9 @@
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
+      <c r="I30" t="s">
+        <v>433</v>
+      </c>
       <c r="J30">
         <v>10</v>
       </c>
@@ -7272,6 +7407,9 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>68</v>
       </c>
@@ -7313,6 +7451,9 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>9</v>
       </c>
@@ -7354,6 +7495,9 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
+      <c r="I33" t="s">
+        <v>433</v>
+      </c>
       <c r="J33">
         <v>2</v>
       </c>
@@ -7395,6 +7539,9 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
+      <c r="I34" t="s">
+        <v>433</v>
+      </c>
       <c r="K34">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7433,6 +7580,9 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
+      <c r="I35" t="s">
+        <v>433</v>
+      </c>
       <c r="K35">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7471,6 +7621,9 @@
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
         <v>80</v>
       </c>
@@ -7512,6 +7665,9 @@
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
+      <c r="I37" t="s">
+        <v>433</v>
+      </c>
       <c r="J37">
         <v>2</v>
       </c>
@@ -7555,6 +7711,9 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>100</v>
       </c>
@@ -7596,6 +7755,9 @@
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39">
         <v>39</v>
       </c>
@@ -7637,6 +7799,9 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>8</v>
       </c>
@@ -7674,6 +7839,9 @@
       <c r="H41" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>433</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
